--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -889,13 +889,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1022,6 +1022,16 @@
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection password="C732" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -1046,7 +1056,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2103,62 +2113,82 @@
         <v>2</v>
       </c>
       <c r="C2" s="30">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D2" s="30">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="30">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="29">
         <v>3</v>
       </c>
       <c r="C3" s="30">
-        <v>0.02</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D3" s="30">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="30">
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D4" s="30">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29">
+        <v>5</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="29">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
@@ -2250,11 +2280,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3302,57 +3332,6 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>3</v>
-      </c>
-      <c r="C3" s="31">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="33">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection password="C732" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7635" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7635" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Power Flow Methods</t>
   </si>
@@ -891,11 +891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -972,16 +972,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="11">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
@@ -1027,10 +1027,52 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.06</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1054,9 +1096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
